--- a/NEW HR/CAPACIA, JASON A..xlsx
+++ b/NEW HR/CAPACIA, JASON A..xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
   <si>
     <t>PERIOD</t>
   </si>
@@ -176,6 +176,12 @@
   </si>
   <si>
     <t>SP(1-0-0)</t>
+  </si>
+  <si>
+    <t>SL(1-0-0)</t>
+  </si>
+  <si>
+    <t>10/6,7/2023</t>
   </si>
 </sst>
 </file>
@@ -554,17 +560,11 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -578,20 +578,26 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2576,7 +2582,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K134" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K136" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -2954,12 +2960,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K134"/>
+  <dimension ref="A2:K136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4785" topLeftCell="A7" activePane="bottomLeft"/>
+      <pane ySplit="4785" topLeftCell="A10" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
+      <selection pane="bottomLeft" activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2981,64 +2987,64 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="49"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="54">
         <v>45019</v>
       </c>
-      <c r="G3" s="50"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="49"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3064,18 +3070,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3122,7 +3128,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>7.4169999999999998</v>
+        <v>8.6669999999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3132,7 +3138,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>7.4169999999999998</v>
+        <v>7.6669999999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3286,26 +3292,28 @@
       <c r="B17" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="13"/>
+      <c r="C17" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D17" s="39"/>
       <c r="E17" s="9"/>
       <c r="F17" s="20"/>
-      <c r="G17" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G17" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H17" s="39"/>
       <c r="I17" s="9"/>
       <c r="J17" s="11"/>
-      <c r="K17" s="61">
+      <c r="K17" s="49">
         <v>45201</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B18" s="20"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C18" s="13"/>
       <c r="D18" s="39"/>
       <c r="E18" s="9"/>
@@ -3317,13 +3325,15 @@
       <c r="H18" s="39"/>
       <c r="I18" s="9"/>
       <c r="J18" s="11"/>
-      <c r="K18" s="20"/>
+      <c r="K18" s="49">
+        <v>45207</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B19" s="20"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C19" s="13"/>
       <c r="D19" s="39"/>
       <c r="E19" s="9"/>
@@ -3332,14 +3342,22 @@
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H19" s="39"/>
+      <c r="H19" s="39">
+        <v>1</v>
+      </c>
       <c r="I19" s="9"/>
       <c r="J19" s="11"/>
-      <c r="K19" s="20"/>
+      <c r="K19" s="49" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="20"/>
+      <c r="A20" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C20" s="13"/>
       <c r="D20" s="39"/>
       <c r="E20" s="9"/>
@@ -3351,10 +3369,14 @@
       <c r="H20" s="39"/>
       <c r="I20" s="9"/>
       <c r="J20" s="11"/>
-      <c r="K20" s="20"/>
+      <c r="K20" s="49">
+        <v>45242</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
+      <c r="A21" s="40">
+        <v>45261</v>
+      </c>
       <c r="B21" s="20"/>
       <c r="C21" s="13"/>
       <c r="D21" s="39"/>
@@ -3386,7 +3408,7 @@
       <c r="K22" s="20"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="48"/>
+      <c r="A23" s="40"/>
       <c r="B23" s="20"/>
       <c r="C23" s="13"/>
       <c r="D23" s="39"/>
@@ -3418,7 +3440,7 @@
       <c r="K24" s="20"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
+      <c r="A25" s="48"/>
       <c r="B25" s="20"/>
       <c r="C25" s="13"/>
       <c r="D25" s="39"/>
@@ -3594,7 +3616,7 @@
       <c r="K35" s="20"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="48"/>
+      <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
       <c r="D36" s="39"/>
@@ -3626,7 +3648,7 @@
       <c r="K37" s="20"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="40"/>
+      <c r="A38" s="48"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
       <c r="D38" s="39"/>
@@ -3802,7 +3824,7 @@
       <c r="K48" s="20"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="48"/>
+      <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
       <c r="D49" s="39"/>
@@ -3834,7 +3856,7 @@
       <c r="K50" s="20"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="40"/>
+      <c r="A51" s="48"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
       <c r="D51" s="39"/>
@@ -4010,7 +4032,7 @@
       <c r="K61" s="20"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="48"/>
+      <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
       <c r="D62" s="39"/>
@@ -4042,7 +4064,7 @@
       <c r="K63" s="20"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="40"/>
+      <c r="A64" s="48"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
       <c r="D64" s="39"/>
@@ -4218,7 +4240,7 @@
       <c r="K74" s="20"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="48"/>
+      <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
       <c r="D75" s="39"/>
@@ -4250,7 +4272,7 @@
       <c r="K76" s="20"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="40"/>
+      <c r="A77" s="48"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
       <c r="D77" s="39"/>
@@ -5162,34 +5184,66 @@
       <c r="K133" s="20"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="41"/>
-      <c r="B134" s="15"/>
-      <c r="C134" s="42"/>
-      <c r="D134" s="43"/>
+      <c r="A134" s="40"/>
+      <c r="B134" s="20"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="39"/>
       <c r="E134" s="9"/>
-      <c r="F134" s="15"/>
-      <c r="G134" s="42" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H134" s="43"/>
+      <c r="F134" s="20"/>
+      <c r="G134" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H134" s="39"/>
       <c r="I134" s="9"/>
-      <c r="J134" s="12"/>
-      <c r="K134" s="15"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="20"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" s="40"/>
+      <c r="B135" s="20"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="39"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="20"/>
+      <c r="G135" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H135" s="39"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="11"/>
+      <c r="K135" s="20"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" s="41"/>
+      <c r="B136" s="15"/>
+      <c r="C136" s="42"/>
+      <c r="D136" s="43"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="42" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H136" s="43"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="12"/>
+      <c r="K136" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5241,17 +5295,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="J1" s="60" t="s">
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="J1" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
@@ -5328,12 +5382,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
